--- a/biology/Histoire de la zoologie et de la botanique/Johann_Ritter_von_Baillou/Johann_Ritter_von_Baillou.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Ritter_von_Baillou/Johann_Ritter_von_Baillou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chevalier Jean von Baillou (ou Jean de Baillou, ou Giovanni de Baillou, ou encore Johann Ritter von Baillou), né le 20 octobre 1679, mort à Vienne le 23 novembre 1758, est un naturaliste et scientifique italien de l'époque baroque. Il a été au service du duc de Parme, du grand-duc de Toscane et de l'empereur François Ier. Il est le concepteur des jardins du palais de Colorno. Sa fameuse collection constitua le fonds qui permit de créer le musée d'histoire naturelle de Vienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Au service des grands de ce monde</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lieu de naissance de Jean von Baillou n'est pas connu. Il serait né soit en France, soit dans les Flandres, soit en Lorraine. La famille de Jean von Baillou est originaire des Pays-Bas.
 Ce jeune francophone roturier étudia les mathématiques, les sciences naturelles, la médecine et la chimie, notamment à Paris. En 1718, il se trouve au service du duc François Ier de Parme. En tant qu'architecte du duc, il est le concepteur des jardins du palais de Colorno mais aussi commissaire général et lieutenant colonel d'artillerie de l'armée ducale.
@@ -546,7 +560,9 @@
           <t>L'empereur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1737, le dernier des Médicis s'éteint et conformément au traité de Vienne, la Toscane revient au duc François III de Lorraine qui a renoncé à ses duchés patrimoniaux pour pouvoir épouser l'archiduchesse-héritière Marie-Thérèse d'Autriche. Le nouveau grand-duc est un passionné de sciences et sait apprécier les compétences de son nouveau sujet qu'il anoblit.
 En 1745, François de Lorraine est élu empereur et nomme Jean von Baillou, directeur des collections impériales. En 1749, l'empereur rachète la fameuse et précieuse collections de Jean von Baillou tout en nommant celui-ci conservateur de ladite collection, au palais Hofburg en Autriche, fonction qu’il conserve jusqu’à sa mort. L'empereur s'engage également à conserver au fils de Jean, Louis-Balthasar, les fonctions de conservateurs de la collection.
@@ -579,7 +595,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'empereur s'éteint à son tour en 1765 et l'impératrice transforme les collections de son défunt mari en musée d'histoire naturelle de la ville de Vienne et ouvre les collections au public.
 </t>
@@ -610,7 +628,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Johann Ritter von Baillou » (voir la liste des auteurs).
 Cet article est partiellement ou en totalité issu de l'article intitulé « Johann von Baillou » (voir la liste des auteurs).</t>
